--- a/Übung 5/Ü5-HA-Hazardraten-Daten.xlsx
+++ b/Übung 5/Ü5-HA-Hazardraten-Daten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Documents/AWI Msc./1. Semester/Mathematische Stochastische Modelle und MC Simulationen/Übung 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D7006A-D85E-3B45-9AB7-51D216535FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5031E5D-0E98-8A45-97E7-04F7A09B545D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3100" windowWidth="19200" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q111"/>
   <sheetViews>
-    <sheetView topLeftCell="H94" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:Q110"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8188,7 +8188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7C95C5-2B02-D145-94AE-3F92B8396FDC}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -9944,8 +9944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CBED2B-3552-FD4F-B120-94268D711781}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
